--- a/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
@@ -747,119 +747,149 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.08</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="J2" t="n">
-        <v>4.27</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.17</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
-        <v>9.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AM2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>126</v>
+      </c>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
     </row>
@@ -895,119 +925,149 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H3" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="I3" t="n">
-        <v>6.34</v>
+        <v>6.1</v>
       </c>
       <c r="J3" t="n">
         <v>1.9</v>
       </c>
       <c r="K3" t="n">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="L3" t="n">
-        <v>5.59</v>
+        <v>5.7</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>11.5</v>
+        <v>13.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R3" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="T3" t="n">
-        <v>3.55</v>
+        <v>3.46</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>6.4</v>
+        <v>8.25</v>
       </c>
       <c r="X3" t="n">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.8</v>
+        <v>8.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.4</v>
+        <v>10.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.800000000000001</v>
+        <v>10.75</v>
       </c>
       <c r="AB3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.8</v>
+        <v>8.75</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG3" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
         <v>40</v>
       </c>
       <c r="AJ3" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AL3" t="n">
         <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>400</v>
+      </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
     </row>
@@ -1043,119 +1103,145 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="J4" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="K4" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12</v>
-      </c>
+        <v>3.35</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
         <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>4.6</v>
+        <v>3.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="R4" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S4" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="T4" t="n">
-        <v>3.6</v>
+        <v>3.32</v>
       </c>
       <c r="U4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V4" t="n">
-        <v>2.46</v>
+        <v>2.27</v>
       </c>
       <c r="W4" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="X4" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="Z4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP4" t="n">
         <v>16</v>
       </c>
-      <c r="AA4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AQ4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX4" t="n">
         <v>15</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AY4" t="n">
         <v>19</v>
       </c>
-      <c r="AM4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
+      <c r="AZ4" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>200</v>
+      </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
     </row>
@@ -1555,22 +1641,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1591,10 +1677,10 @@
         <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U7" t="n">
         <v>2.1</v>
@@ -1603,7 +1689,7 @@
         <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
         <v>12</v>
@@ -1621,7 +1707,7 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
@@ -1642,13 +1728,13 @@
         <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
         <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1660,7 +1746,7 @@
         <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
@@ -1672,7 +1758,7 @@
         <v>301</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
@@ -1684,7 +1770,7 @@
         <v>4.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1696,7 +1782,7 @@
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -2101,22 +2187,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.42</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>4.58</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -2125,61 +2211,125 @@
         <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q10" t="n">
         <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
         <v>2.1</v>
       </c>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>151</v>
+      </c>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
     </row>
@@ -2215,119 +2365,149 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
-        <v>5.54</v>
+        <v>5.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L11" t="n">
-        <v>5.16</v>
+        <v>5.1</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>9.1</v>
+        <v>6.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R11" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="T11" t="n">
-        <v>2.85</v>
+        <v>2.66</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="V11" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="W11" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="X11" t="n">
-        <v>5.6</v>
+        <v>7.1</v>
       </c>
       <c r="Y11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD11" t="n">
         <v>6.8</v>
       </c>
-      <c r="Z11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>5.4</v>
-      </c>
       <c r="AE11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>90</v>
       </c>
       <c r="AG11" t="n">
-        <v>101</v>
+        <v>800</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AK11" t="n">
         <v>100</v>
       </c>
       <c r="AL11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>400</v>
+      </c>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
     </row>
@@ -2369,7 +2549,7 @@
         <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="J12" t="n">
         <v>3.95</v>
@@ -2378,14 +2558,10 @@
         <v>2.07</v>
       </c>
       <c r="L12" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8.300000000000001</v>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
         <v>1.33</v>
       </c>
@@ -2423,7 +2599,7 @@
         <v>50</v>
       </c>
       <c r="AA12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB12" t="n">
         <v>40</v>
@@ -2453,19 +2629,19 @@
         <v>8.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM12" t="n">
         <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AP12" t="n">
         <v>25</v>
@@ -2480,13 +2656,13 @@
         <v>300</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="AU12" t="n">
         <v>6.8</v>
       </c>
       <c r="AV12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW12" t="n">
         <v>3.9</v>
@@ -2495,16 +2671,16 @@
         <v>10.25</v>
       </c>
       <c r="AY12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB12" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="inlineStr"/>
@@ -2541,61 +2717,61 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="H13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R13" t="n">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="S13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="T13" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="U13" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="V13" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="W13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X13" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
         <v>90</v>
@@ -2604,13 +2780,13 @@
         <v>37</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AE13" t="n">
         <v>12.5</v>
@@ -2619,28 +2795,28 @@
         <v>35</v>
       </c>
       <c r="AG13" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AH13" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI13" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL13" t="n">
         <v>11</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AM13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AO13" t="n">
         <v>24</v>
@@ -2658,7 +2834,7 @@
         <v>175</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AU13" t="n">
         <v>6.5</v>
@@ -2667,22 +2843,22 @@
         <v>37</v>
       </c>
       <c r="AW13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BB13" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BC13" t="n">
         <v>450</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
@@ -747,40 +747,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -795,31 +795,31 @@
         <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB2" t="n">
         <v>34</v>
       </c>
-      <c r="AA2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>29</v>
-      </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -831,34 +831,34 @@
         <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP2" t="n">
         <v>26</v>
       </c>
-      <c r="AN2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
         <v>151</v>
@@ -873,16 +873,16 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
@@ -925,148 +925,148 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="H3" t="n">
-        <v>4.35</v>
+        <v>5.25</v>
       </c>
       <c r="I3" t="n">
-        <v>6.1</v>
+        <v>9.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="K3" t="n">
-        <v>2.37</v>
+        <v>2.63</v>
       </c>
       <c r="L3" t="n">
-        <v>5.7</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>13.3</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="S3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T3" t="n">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP3" t="n">
         <v>17</v>
       </c>
-      <c r="AF3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>7.6</v>
+        <v>9.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1103,54 +1103,58 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="L4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+        <v>3.45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.9</v>
+      </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.96</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="R4" t="n">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>3.32</v>
+        <v>2.99</v>
       </c>
       <c r="U4" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="W4" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y4" t="n">
         <v>8.75</v>
@@ -1159,31 +1163,31 @@
         <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AC4" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG4" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AH4" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>10.5</v>
@@ -1192,55 +1196,55 @@
         <v>37</v>
       </c>
       <c r="AL4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP4" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS4" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AV4" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BB4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
@@ -1459,16 +1463,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
@@ -1501,25 +1505,25 @@
         <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
         <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
         <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
         <v>26</v>
@@ -1591,7 +1595,7 @@
         <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
@@ -1641,22 +1645,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1689,10 +1693,10 @@
         <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
@@ -1701,7 +1705,7 @@
         <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1710,7 +1714,7 @@
         <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>19</v>
@@ -1728,13 +1732,13 @@
         <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
         <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1743,13 +1747,13 @@
         <v>4.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
         <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
         <v>101</v>
@@ -1767,10 +1771,10 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1823,28 +1827,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1874,7 +1878,7 @@
         <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1889,7 +1893,7 @@
         <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
         <v>7</v>
@@ -1901,16 +1905,16 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>41</v>
@@ -1934,7 +1938,7 @@
         <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
@@ -1952,7 +1956,7 @@
         <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>
@@ -2211,16 +2215,16 @@
         <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>
@@ -2543,25 +2547,29 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.05</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.07</v>
-      </c>
       <c r="L12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+        <v>2.7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8.1</v>
+      </c>
       <c r="O12" t="n">
         <v>1.33</v>
       </c>
@@ -2581,25 +2589,25 @@
         <v>2.57</v>
       </c>
       <c r="U12" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="W12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB12" t="n">
         <v>40</v>
@@ -2608,10 +2616,10 @@
         <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
         <v>70</v>
@@ -2620,34 +2628,34 @@
         <v>600</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM12" t="n">
         <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AO12" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AP12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AR12" t="n">
         <v>120</v>
@@ -2656,28 +2664,28 @@
         <v>300</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV12" t="n">
         <v>55</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="AX12" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ12" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB12" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -789,13 +789,13 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -828,10 +828,10 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
@@ -852,7 +852,7 @@
         <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
         <v>67</v>
@@ -876,13 +876,13 @@
         <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY2" t="n">
         <v>19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
@@ -925,76 +925,76 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H3" t="n">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="I3" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="K3" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
+        <v>9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W3" t="n">
+        <v>10</v>
+      </c>
+      <c r="X3" t="n">
         <v>7.5</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N3" t="n">
-        <v>17</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
         <v>8</v>
       </c>
-      <c r="X3" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1003,22 +1003,22 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>51</v>
@@ -1027,31 +1027,31 @@
         <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AS3" t="n">
         <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1060,13 +1060,13 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1103,22 +1103,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="K4" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L4" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1127,16 +1127,16 @@
         <v>7.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1145,103 +1145,103 @@
         <v>2.99</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y4" t="n">
         <v>8.5</v>
       </c>
-      <c r="X4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
         <v>350</v>
       </c>
       <c r="AH4" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI4" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>37</v>
       </c>
-      <c r="AL4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>45</v>
-      </c>
       <c r="AR4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS4" t="n">
         <v>200</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV4" t="n">
         <v>55</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AX4" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AY4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BA4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB4" t="n">
         <v>250</v>
@@ -1607,10 +1607,10 @@
         <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -2033,10 +2033,10 @@
         <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q9" t="n">
         <v>2.1</v>
@@ -2212,7 +2212,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
@@ -2233,16 +2233,16 @@
         <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>9</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
@@ -2257,19 +2257,19 @@
         <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH10" t="n">
         <v>15</v>
@@ -2329,10 +2329,10 @@
         <v>81</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
@@ -747,55 +747,55 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
         <v>2.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -807,31 +807,31 @@
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI2" t="n">
         <v>8</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>9</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
@@ -843,43 +843,43 @@
         <v>15</v>
       </c>
       <c r="AM2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN2" t="n">
         <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX2" t="n">
         <v>9.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
         <v>29</v>
@@ -888,7 +888,7 @@
         <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
@@ -955,13 +955,13 @@
         <v>6.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R3" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="T3" t="n">
         <v>4.33</v>
@@ -1103,55 +1103,55 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
         <v>3.75</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.3</v>
-      </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
         <v>10</v>
@@ -1160,91 +1160,91 @@
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
@@ -1299,16 +1299,16 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q5" t="n">
         <v>2.2</v>
@@ -1848,7 +1848,7 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1974,7 +1974,7 @@
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -2191,28 +2191,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K10" t="n">
         <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
@@ -2221,10 +2221,10 @@
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>
@@ -2233,22 +2233,22 @@
         <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>13</v>
@@ -2263,19 +2263,19 @@
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH10" t="n">
         <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
         <v>15</v>
@@ -2293,13 +2293,13 @@
         <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
@@ -2317,7 +2317,7 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
         <v>23</v>
@@ -2326,13 +2326,13 @@
         <v>29</v>
       </c>
       <c r="AZ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA10" t="n">
         <v>81</v>
       </c>
-      <c r="BA10" t="n">
-        <v>101</v>
-      </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
         <v>1.65</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
         <v>5.1</v>
@@ -2384,19 +2384,19 @@
         <v>2.15</v>
       </c>
       <c r="L11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6.9</v>
+        <v>6.85</v>
       </c>
       <c r="O11" t="n">
         <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="Q11" t="n">
         <v>1.93</v>
@@ -2411,16 +2411,16 @@
         <v>2.66</v>
       </c>
       <c r="U11" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
         <v>1.72</v>
       </c>
       <c r="W11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y11" t="n">
         <v>8.25</v>
@@ -2441,7 +2441,7 @@
         <v>6.8</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF11" t="n">
         <v>90</v>
@@ -2450,10 +2450,10 @@
         <v>800</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
         <v>16.5</v>
@@ -2465,52 +2465,52 @@
         <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS11" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AX11" t="n">
         <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AZ11" t="n">
         <v>175</v>
       </c>
       <c r="BA11" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB11" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.29</v>
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -795,28 +795,28 @@
         <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="n">
         <v>41</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
         <v>7</v>
@@ -837,7 +837,7 @@
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
@@ -846,10 +846,10 @@
         <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
@@ -876,7 +876,7 @@
         <v>3.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY2" t="n">
         <v>21</v>
@@ -925,88 +925,88 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I3" t="n">
         <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L3" t="n">
         <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="R3" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="S3" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>8</v>
-      </c>
       <c r="AA3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE3" t="n">
         <v>23</v>
       </c>
-      <c r="AC3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>21</v>
-      </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
@@ -1018,40 +1018,40 @@
         <v>151</v>
       </c>
       <c r="AL3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM3" t="n">
         <v>67</v>
       </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO3" t="n">
         <v>5.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS3" t="n">
         <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1063,10 +1063,10 @@
         <v>201</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1103,94 +1103,94 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.8</v>
       </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1205,25 +1205,25 @@
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1235,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>67</v>
@@ -1244,7 +1244,7 @@
         <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
@@ -1281,34 +1281,34 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>2.2</v>
@@ -1317,10 +1317,10 @@
         <v>1.67</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
         <v>1.83</v>
@@ -1332,7 +1332,7 @@
         <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
@@ -1347,7 +1347,7 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1359,10 +1359,10 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1374,7 +1374,7 @@
         <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
@@ -1398,13 +1398,13 @@
         <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
         <v>5</v>
@@ -1416,13 +1416,13 @@
         <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1792,7 +1792,7 @@
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -1827,28 +1827,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1878,7 +1878,7 @@
         <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1893,10 +1893,10 @@
         <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1905,10 +1905,10 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
         <v>17</v>
@@ -1920,7 +1920,7 @@
         <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
@@ -1938,7 +1938,7 @@
         <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
@@ -1956,13 +1956,13 @@
         <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
         <v>101</v>
@@ -1974,7 +1974,7 @@
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -2009,22 +2009,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2051,16 +2051,16 @@
         <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
         <v>9.5</v>
@@ -2087,10 +2087,10 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
@@ -2102,7 +2102,7 @@
         <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
@@ -2144,7 +2144,7 @@
         <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
         <v>81</v>
@@ -2369,34 +2369,34 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="K11" t="n">
         <v>2.15</v>
       </c>
       <c r="L11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6.85</v>
+        <v>6.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="Q11" t="n">
         <v>1.93</v>
@@ -2417,16 +2417,16 @@
         <v>1.72</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X11" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="Y11" t="n">
         <v>8.25</v>
       </c>
       <c r="Z11" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA11" t="n">
         <v>14</v>
@@ -2435,10 +2435,10 @@
         <v>30</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE11" t="n">
         <v>17.5</v>
@@ -2450,19 +2450,19 @@
         <v>800</v>
       </c>
       <c r="AH11" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
         <v>60</v>
@@ -2471,34 +2471,34 @@
         <v>3.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AP11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS11" t="n">
         <v>250</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AX11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY11" t="n">
         <v>32</v>
@@ -2510,7 +2510,7 @@
         <v>200</v>
       </c>
       <c r="BB11" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
@@ -2550,10 +2550,10 @@
         <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="J12" t="n">
         <v>3.8</v>
@@ -2564,12 +2564,8 @@
       <c r="L12" t="n">
         <v>2.7</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8.1</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
         <v>1.33</v>
       </c>
@@ -2586,16 +2582,16 @@
         <v>1.39</v>
       </c>
       <c r="T12" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="U12" t="n">
         <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X12" t="n">
         <v>17</v>
@@ -2619,7 +2615,7 @@
         <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF12" t="n">
         <v>70</v>
@@ -2628,10 +2624,10 @@
         <v>600</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AI12" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AJ12" t="n">
         <v>8.75</v>
@@ -2649,7 +2645,7 @@
         <v>5.2</v>
       </c>
       <c r="AO12" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AP12" t="n">
         <v>24</v>
@@ -2664,22 +2660,22 @@
         <v>300</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AZ12" t="n">
         <v>40</v>
@@ -2688,7 +2684,7 @@
         <v>70</v>
       </c>
       <c r="BB12" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
@@ -765,10 +765,10 @@
         <v>2.38</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
         <v>1.29</v>
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -1792,7 +1792,7 @@
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -2369,70 +2369,70 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="K11" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L11" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S11" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="T11" t="n">
-        <v>2.66</v>
+        <v>2.69</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V11" t="n">
         <v>1.72</v>
       </c>
       <c r="W11" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="X11" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
         <v>11.75</v>
       </c>
       <c r="AA11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC11" t="n">
         <v>9</v>
@@ -2450,43 +2450,43 @@
         <v>800</v>
       </c>
       <c r="AH11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
         <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN11" t="n">
         <v>3.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AU11" t="n">
         <v>7.4</v>
@@ -2495,22 +2495,22 @@
         <v>65</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AX11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AY11" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ11" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BA11" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB11" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -798,22 +798,22 @@
         <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -831,13 +831,13 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
@@ -846,10 +846,10 @@
         <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
@@ -861,13 +861,13 @@
         <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
         <v>2.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -876,7 +876,7 @@
         <v>3.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY2" t="n">
         <v>21</v>
@@ -928,10 +928,10 @@
         <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>1.62</v>
@@ -940,112 +940,112 @@
         <v>2.88</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="R3" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
         <v>5.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS3" t="n">
         <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1063,10 +1063,10 @@
         <v>201</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1103,16 +1103,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1121,10 +1121,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -1133,10 +1133,10 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1166,7 +1166,7 @@
         <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
         <v>10</v>
@@ -1184,10 +1184,10 @@
         <v>251</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>13</v>
@@ -1281,91 +1281,91 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
         <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
         <v>12</v>
@@ -1374,7 +1374,7 @@
         <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
@@ -1383,46 +1383,46 @@
         <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
         <v>67</v>
       </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX5" t="n">
         <v>19</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1463,16 +1463,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
@@ -1487,16 +1487,16 @@
         <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1514,16 +1514,16 @@
         <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
         <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
         <v>26</v>
@@ -1547,7 +1547,7 @@
         <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>11</v>
@@ -1565,7 +1565,7 @@
         <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
@@ -1610,7 +1610,7 @@
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1660,7 +1660,7 @@
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1696,7 +1696,7 @@
         <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
@@ -1705,7 +1705,7 @@
         <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1732,7 +1732,7 @@
         <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
         <v>26</v>
@@ -1747,13 +1747,13 @@
         <v>4.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
         <v>101</v>
@@ -1771,10 +1771,10 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1869,10 +1869,10 @@
         <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
         <v>6.5</v>
@@ -1908,19 +1908,19 @@
         <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
@@ -1938,7 +1938,7 @@
         <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
@@ -1959,10 +1959,10 @@
         <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
         <v>101</v>
@@ -2009,22 +2009,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2060,25 +2060,25 @@
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
         <v>10</v>
       </c>
-      <c r="Y9" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
         <v>21</v>
       </c>
-      <c r="AA9" t="n">
-        <v>19</v>
-      </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2090,19 +2090,19 @@
         <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
@@ -2111,19 +2111,19 @@
         <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
         <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
         <v>2.63</v>
@@ -2135,16 +2135,16 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
         <v>81</v>
@@ -2194,10 +2194,10 @@
         <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
         <v>2.38</v>
@@ -2212,7 +2212,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
@@ -2221,10 +2221,10 @@
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>
@@ -2281,16 +2281,16 @@
         <v>15</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
         <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
         <v>9</v>
@@ -2302,7 +2302,7 @@
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
         <v>126</v>
@@ -2320,7 +2320,7 @@
         <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>29</v>
@@ -2369,79 +2369,79 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="K11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R11" t="n">
         <v>1.72</v>
       </c>
       <c r="S11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="T11" t="n">
-        <v>2.69</v>
+        <v>2.47</v>
       </c>
       <c r="U11" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
         <v>1.72</v>
       </c>
       <c r="W11" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="Y11" t="n">
         <v>8</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
         <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AE11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF11" t="n">
         <v>90</v>
@@ -2450,34 +2450,34 @@
         <v>800</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI11" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK11" t="n">
         <v>120</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
         <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AP11" t="n">
         <v>16</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR11" t="n">
         <v>50</v>
@@ -2486,7 +2486,7 @@
         <v>200</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="AU11" t="n">
         <v>7.4</v>
@@ -2495,10 +2495,10 @@
         <v>65</v>
       </c>
       <c r="AW11" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AX11" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AY11" t="n">
         <v>35</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -798,13 +798,13 @@
         <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="n">
         <v>34</v>
@@ -816,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -831,13 +831,13 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
@@ -846,10 +846,10 @@
         <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
@@ -861,7 +861,7 @@
         <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.75</v>
@@ -876,7 +876,7 @@
         <v>3.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY2" t="n">
         <v>21</v>
@@ -925,88 +925,88 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="H3" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="K3" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
         <v>8.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X3" t="n">
         <v>6.5</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W3" t="n">
-        <v>10</v>
-      </c>
-      <c r="X3" t="n">
-        <v>7.5</v>
-      </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>8</v>
       </c>
       <c r="AA3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
@@ -1021,37 +1021,37 @@
         <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT3" t="n">
         <v>3.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>4</v>
       </c>
       <c r="AU3" t="n">
         <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1063,10 +1063,10 @@
         <v>201</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1103,13 +1103,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
@@ -1127,16 +1127,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1154,19 +1154,19 @@
         <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
         <v>10</v>
@@ -1190,7 +1190,7 @@
         <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1205,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1232,7 +1232,7 @@
         <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1281,22 +1281,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1305,10 +1305,10 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
         <v>2.5</v>
@@ -1332,7 +1332,7 @@
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1365,7 +1365,7 @@
         <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>12</v>
@@ -1407,7 +1407,7 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
         <v>19</v>
@@ -1463,13 +1463,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
         <v>2.88</v>
@@ -1487,22 +1487,22 @@
         <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
         <v>1.67</v>
@@ -1526,7 +1526,7 @@
         <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1541,10 +1541,10 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
         <v>17</v>
@@ -1580,7 +1580,7 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>7.5</v>
@@ -1607,7 +1607,7 @@
         <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1660,7 +1660,7 @@
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1696,16 +1696,16 @@
         <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
         <v>29</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>26</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1732,10 +1732,10 @@
         <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
         <v>23</v>
@@ -1747,13 +1747,13 @@
         <v>4.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
         <v>101</v>
@@ -1771,10 +1771,10 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1851,16 +1851,16 @@
         <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -2012,7 +2012,7 @@
         <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
         <v>2.9</v>
@@ -2030,7 +2030,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -2102,7 +2102,7 @@
         <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>51</v>
@@ -2340,7 +2340,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bqG8rkuA</t>
+          <t>2FstQtPr</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2360,157 +2360,157 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.57</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>5.8</v>
+        <v>2.15</v>
       </c>
       <c r="J11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.05</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L11" t="n">
-        <v>5.7</v>
+        <v>2.7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH11" t="n">
         <v>7.1</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W11" t="n">
-        <v>6</v>
-      </c>
-      <c r="X11" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AI11" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM11" t="n">
         <v>29</v>
       </c>
-      <c r="AC11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF11" t="n">
+      <c r="AN11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>90</v>
       </c>
-      <c r="AG11" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="AR11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY11" t="n">
         <v>18.5</v>
       </c>
-      <c r="AK11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL11" t="n">
+      <c r="AZ11" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA11" t="n">
         <v>70</v>
       </c>
-      <c r="AM11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>35</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>200</v>
-      </c>
-      <c r="BA11" t="n">
+      <c r="BB11" t="n">
         <v>250</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>450</v>
       </c>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
@@ -2518,7 +2518,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2FstQtPr</t>
+          <t>bqG8rkuA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2538,153 +2538,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P12" t="n">
         <v>3.1</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.77</v>
-      </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="S12" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT12" t="n">
         <v>2.55</v>
       </c>
-      <c r="U12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W12" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="X12" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AU12" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY12" t="n">
         <v>40</v>
       </c>
-      <c r="AC12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS12" t="n">
+      <c r="AZ12" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA12" t="n">
         <v>300</v>
       </c>
-      <c r="AT12" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>40</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>70</v>
-      </c>
       <c r="BB12" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -771,28 +771,28 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>12</v>
@@ -804,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
         <v>34</v>
@@ -816,10 +816,10 @@
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
@@ -828,16 +828,16 @@
         <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
@@ -846,13 +846,13 @@
         <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
         <v>81</v>
@@ -861,10 +861,10 @@
         <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -876,10 +876,10 @@
         <v>3.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
         <v>29</v>
@@ -888,7 +888,7 @@
         <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
@@ -925,58 +925,58 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
         <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -985,31 +985,31 @@
         <v>8</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -1018,37 +1018,37 @@
         <v>126</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AO3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>19</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>15</v>
-      </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>9.5</v>
@@ -1057,13 +1057,13 @@
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1103,19 +1103,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
@@ -1133,10 +1133,10 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1184,10 +1184,10 @@
         <v>251</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>12</v>
@@ -1205,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1305,10 +1305,10 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
         <v>2.5</v>
@@ -1493,10 +1493,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1675,10 +1675,10 @@
         <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
         <v>1.57</v>
@@ -1699,7 +1699,7 @@
         <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
         <v>34</v>
@@ -1792,7 +1792,7 @@
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -1833,13 +1833,13 @@
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
         <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
         <v>4.5</v>
@@ -1863,22 +1863,22 @@
         <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
         <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1890,10 +1890,10 @@
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1902,13 +1902,13 @@
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
         <v>19</v>
@@ -1926,7 +1926,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
@@ -1938,25 +1938,25 @@
         <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
         <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>
@@ -1968,13 +1968,13 @@
         <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -2030,7 +2030,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -2108,7 +2108,7 @@
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
@@ -2191,13 +2191,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
         <v>2.38</v>
@@ -2212,7 +2212,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
@@ -2221,10 +2221,10 @@
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>
@@ -2340,7 +2340,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2FstQtPr</t>
+          <t>bqG8rkuA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2360,157 +2360,157 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>1.55</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>2.15</v>
+        <v>5.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="L11" t="n">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>8.1</v>
+        <v>9.42</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.77</v>
+        <v>3.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="S11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T11" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="U11" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="V11" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="W11" t="n">
-        <v>9.25</v>
+        <v>6.7</v>
       </c>
       <c r="X11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE11" t="n">
         <v>17</v>
       </c>
-      <c r="Y11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AF11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI11" t="n">
         <v>32</v>
       </c>
-      <c r="AB11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="AL11" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.2</v>
+        <v>3.35</v>
       </c>
       <c r="AO11" t="n">
-        <v>18.5</v>
+        <v>7.4</v>
       </c>
       <c r="AP11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>24</v>
       </c>
-      <c r="AQ11" t="n">
-        <v>90</v>
-      </c>
       <c r="AR11" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AS11" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="AU11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW11" t="n">
         <v>6.8</v>
       </c>
-      <c r="AV11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4</v>
-      </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AY11" t="n">
-        <v>18.5</v>
+        <v>35</v>
       </c>
       <c r="AZ11" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="BA11" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="BB11" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
@@ -2518,7 +2518,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bqG8rkuA</t>
+          <t>2FstQtPr</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2538,157 +2538,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>5.8</v>
+        <v>2.15</v>
       </c>
       <c r="J12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.05</v>
       </c>
-      <c r="K12" t="n">
-        <v>2.18</v>
-      </c>
       <c r="L12" t="n">
-        <v>5.7</v>
+        <v>2.7</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3.1</v>
+        <v>2.77</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T12" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="W12" t="n">
-        <v>6.4</v>
+        <v>9.25</v>
       </c>
       <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU12" t="n">
         <v>6.8</v>
       </c>
-      <c r="Y12" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS12" t="n">
+      <c r="AV12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB12" t="n">
         <v>250</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>35</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>250</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>500</v>
       </c>
       <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="inlineStr"/>
@@ -2725,22 +2725,22 @@
         </is>
       </c>
       <c r="G13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J13" t="n">
         <v>4.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.52</v>
       </c>
       <c r="L13" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2749,19 +2749,19 @@
         <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R13" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="S13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="T13" t="n">
         <v>3.7</v>
@@ -2773,40 +2773,40 @@
         <v>2.5</v>
       </c>
       <c r="W13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X13" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA13" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
         <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE13" t="n">
         <v>12.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG13" t="n">
         <v>175</v>
       </c>
       <c r="AH13" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AI13" t="n">
         <v>10.25</v>
@@ -2815,58 +2815,58 @@
         <v>8.25</v>
       </c>
       <c r="AK13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL13" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AM13" t="n">
         <v>16.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR13" t="n">
         <v>110</v>
       </c>
-      <c r="AR13" t="n">
-        <v>100</v>
-      </c>
       <c r="AS13" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT13" t="n">
         <v>3.7</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV13" t="n">
         <v>37</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AY13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BB13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BC13" t="n">
         <v>450</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
@@ -798,10 +798,10 @@
         <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
@@ -831,7 +831,7 @@
         <v>7.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
@@ -879,10 +879,10 @@
         <v>9.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
@@ -931,34 +931,34 @@
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
         <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -967,13 +967,13 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
         <v>5.5</v>
@@ -991,13 +991,13 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>9</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
@@ -1063,7 +1063,7 @@
         <v>251</v>
       </c>
       <c r="BA3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1103,22 +1103,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1127,10 +1127,10 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
         <v>1.98</v>
@@ -1145,25 +1145,25 @@
         <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
         <v>26</v>
@@ -1187,31 +1187,31 @@
         <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1229,19 +1229,19 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
         <v>201</v>
@@ -1463,13 +1463,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
         <v>2.88</v>
@@ -1493,16 +1493,16 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
         <v>1.67</v>
@@ -1526,7 +1526,7 @@
         <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1541,13 +1541,13 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
         <v>11</v>
@@ -1580,7 +1580,7 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
         <v>7.5</v>
@@ -1651,16 +1651,16 @@
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1693,7 +1693,7 @@
         <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1711,7 +1711,7 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
@@ -1729,7 +1729,7 @@
         <v>6.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
         <v>10</v>
@@ -1786,7 +1786,7 @@
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1974,7 +1974,7 @@
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -2030,7 +2030,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -2108,7 +2108,7 @@
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
@@ -2547,22 +2547,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L12" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2571,7 +2571,7 @@
         <v>8.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P12" t="n">
         <v>2.77</v>
@@ -2595,22 +2595,22 @@
         <v>1.85</v>
       </c>
       <c r="W12" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AB12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC12" t="n">
         <v>8.5</v>
@@ -2619,7 +2619,7 @@
         <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
         <v>70</v>
@@ -2628,43 +2628,43 @@
         <v>600</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AI12" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AO12" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS12" t="n">
         <v>300</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AU12" t="n">
         <v>6.8</v>
@@ -2673,19 +2673,19 @@
         <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ12" t="n">
         <v>40</v>
       </c>
       <c r="BA12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB12" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
@@ -771,16 +771,16 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.85</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.95</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -925,82 +925,82 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.98</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
       </c>
       <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE3" t="n">
         <v>34</v>
       </c>
-      <c r="AC3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>26</v>
-      </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AG3" t="n">
         <v>351</v>
@@ -1009,61 +1009,61 @@
         <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AL3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AX3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ3" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BA3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1103,22 +1103,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1127,16 +1127,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1154,7 +1154,7 @@
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1172,28 +1172,28 @@
         <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
         <v>34</v>
@@ -1202,16 +1202,16 @@
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1223,7 +1223,7 @@
         <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1232,10 +1232,10 @@
         <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
         <v>81</v>
@@ -1244,7 +1244,7 @@
         <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
@@ -1466,13 +1466,13 @@
         <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
@@ -1493,10 +1493,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1514,16 +1514,16 @@
         <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
         <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
         <v>26</v>
@@ -1565,7 +1565,7 @@
         <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1696,7 +1696,7 @@
         <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
@@ -1711,7 +1711,7 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
@@ -1744,7 +1744,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
         <v>19</v>
@@ -1845,22 +1845,22 @@
         <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -2009,40 +2009,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
         <v>2.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.05</v>
       </c>
-      <c r="L9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2051,19 +2051,19 @@
         <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
         <v>23</v>
@@ -2072,13 +2072,13 @@
         <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2087,13 +2087,13 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
         <v>11</v>
@@ -2108,22 +2108,22 @@
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
         <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
         <v>2.63</v>
@@ -2191,46 +2191,46 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P10" t="n">
         <v>4.5</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>13</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U10" t="n">
         <v>1.67</v>
@@ -2239,7 +2239,7 @@
         <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
         <v>9</v>
@@ -2248,22 +2248,22 @@
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
         <v>15</v>
       </c>
-      <c r="AA10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>12</v>
-      </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
@@ -2272,43 +2272,43 @@
         <v>151</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>23</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
+      <c r="AR10" t="n">
         <v>41</v>
       </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2317,16 +2317,16 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY10" t="n">
         <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
         <v>81</v>
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
@@ -2556,28 +2556,28 @@
         <v>2.25</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
         <v>2.07</v>
       </c>
       <c r="L12" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
         <v>1.65</v>
@@ -2586,43 +2586,43 @@
         <v>1.39</v>
       </c>
       <c r="T12" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W12" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Z12" t="n">
         <v>40</v>
       </c>
       <c r="AA12" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB12" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="n">
         <v>600</v>
@@ -2649,22 +2649,22 @@
         <v>5</v>
       </c>
       <c r="AO12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ12" t="n">
         <v>80</v>
       </c>
       <c r="AR12" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS12" t="n">
         <v>300</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU12" t="n">
         <v>6.8</v>
@@ -2673,19 +2673,19 @@
         <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AX12" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB12" t="n">
         <v>250</v>
@@ -2725,19 +2725,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H13" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="I13" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="J13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K13" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="L13" t="n">
         <v>1.98</v>
@@ -2752,19 +2752,19 @@
         <v>1.12</v>
       </c>
       <c r="P13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R13" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="S13" t="n">
         <v>1.23</v>
       </c>
       <c r="T13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="U13" t="n">
         <v>1.47</v>
@@ -2779,7 +2779,7 @@
         <v>40</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z13" t="n">
         <v>100</v>
@@ -2797,7 +2797,7 @@
         <v>9.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
         <v>37</v>
@@ -2806,13 +2806,13 @@
         <v>175</v>
       </c>
       <c r="AH13" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI13" t="n">
         <v>10.25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK13" t="n">
         <v>13</v>
@@ -2824,13 +2824,13 @@
         <v>16.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ13" t="n">
         <v>120</v>
@@ -2839,10 +2839,10 @@
         <v>110</v>
       </c>
       <c r="AS13" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AU13" t="n">
         <v>6.6</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -777,37 +777,37 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
         <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="n">
         <v>41</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -816,28 +816,28 @@
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
@@ -846,13 +846,13 @@
         <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
         <v>81</v>
@@ -861,13 +861,13 @@
         <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -876,19 +876,19 @@
         <v>3.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY2" t="n">
         <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
@@ -925,22 +925,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -973,7 +973,7 @@
         <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
         <v>5</v>
@@ -991,34 +991,34 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG3" t="n">
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
         <v>201</v>
       </c>
       <c r="AL3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AM3" t="n">
         <v>101</v>
@@ -1051,10 +1051,10 @@
         <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AY3" t="n">
         <v>67</v>
@@ -1133,10 +1133,10 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1463,13 +1463,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -1478,7 +1478,7 @@
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1493,10 +1493,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1505,10 +1505,10 @@
         <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
         <v>8.5</v>
@@ -1553,7 +1553,7 @@
         <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>23</v>
@@ -1562,7 +1562,7 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1660,7 +1660,7 @@
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1693,19 +1693,19 @@
         <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
         <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
         <v>34</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>29</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1726,19 +1726,19 @@
         <v>501</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1747,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
         <v>34</v>
@@ -1759,7 +1759,7 @@
         <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT7" t="n">
         <v>2.25</v>
@@ -1771,10 +1771,10 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1830,19 +1830,19 @@
         <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1875,7 +1875,7 @@
         <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
         <v>8.5</v>
@@ -1887,28 +1887,28 @@
         <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>19</v>
@@ -1932,7 +1932,7 @@
         <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1947,13 +1947,13 @@
         <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>23</v>
@@ -1965,7 +1965,7 @@
         <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
         <v>301</v>
@@ -2009,13 +2009,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
@@ -2039,7 +2039,7 @@
         <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
         <v>1.8</v>
@@ -2063,7 +2063,7 @@
         <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
         <v>23</v>
@@ -2078,7 +2078,7 @@
         <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
         <v>3.8</v>
@@ -2200,7 +2200,7 @@
         <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K10" t="n">
         <v>2.4</v>
@@ -2263,7 +2263,7 @@
         <v>8</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
@@ -2311,7 +2311,7 @@
         <v>3.4</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
@@ -2320,7 +2320,7 @@
         <v>7</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
         <v>29</v>
@@ -2725,28 +2725,28 @@
         </is>
       </c>
       <c r="G13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J13" t="n">
         <v>5.1</v>
       </c>
-      <c r="H13" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.7</v>
-      </c>
       <c r="K13" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="L13" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O13" t="n">
         <v>1.12</v>
@@ -2758,112 +2758,112 @@
         <v>1.38</v>
       </c>
       <c r="R13" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="S13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T13" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="U13" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="W13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="X13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AA13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC13" t="n">
         <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG13" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AH13" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AJ13" t="n">
         <v>8.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL13" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AM13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AO13" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AP13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR13" t="n">
         <v>120</v>
       </c>
-      <c r="AR13" t="n">
-        <v>110</v>
-      </c>
       <c r="AS13" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV13" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="AY13" t="n">
         <v>12</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BB13" t="n">
         <v>100</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H3" t="n">
         <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
         <v>1.67</v>
@@ -940,13 +940,13 @@
         <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -955,31 +955,31 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>6.5</v>
@@ -994,28 +994,28 @@
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL3" t="n">
         <v>126</v>
@@ -1024,40 +1024,40 @@
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
         <v>5.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>15</v>
       </c>
       <c r="AR3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX3" t="n">
         <v>51</v>
       </c>
-      <c r="AS3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>67</v>
-      </c>
       <c r="AY3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
         <v>351</v>
@@ -1127,16 +1127,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1493,10 +1493,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1505,13 +1505,13 @@
         <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1520,7 +1520,7 @@
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
         <v>19</v>
@@ -1550,13 +1550,13 @@
         <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
@@ -1592,7 +1592,7 @@
         <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>23</v>
@@ -1657,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
         <v>3.1</v>
@@ -1675,10 +1675,10 @@
         <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
         <v>1.57</v>
@@ -1759,7 +1759,7 @@
         <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT7" t="n">
         <v>2.25</v>
@@ -1827,13 +1827,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
         <v>2.75</v>
@@ -1842,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1905,13 +1905,13 @@
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH8" t="n">
         <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
         <v>13</v>
@@ -1953,7 +1953,7 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
         <v>23</v>
@@ -2030,7 +2030,7 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -2039,7 +2039,7 @@
         <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R9" t="n">
         <v>1.8</v>
@@ -2063,7 +2063,7 @@
         <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
         <v>23</v>
@@ -2078,7 +2078,7 @@
         <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2093,7 +2093,7 @@
         <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>11</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
@@ -747,52 +747,52 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>12</v>
@@ -804,10 +804,10 @@
         <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -816,28 +816,28 @@
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
@@ -846,13 +846,13 @@
         <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
         <v>81</v>
@@ -861,13 +861,13 @@
         <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -876,10 +876,10 @@
         <v>3.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
         <v>29</v>
@@ -888,7 +888,7 @@
         <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
@@ -928,7 +928,7 @@
         <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
         <v>15</v>
@@ -943,10 +943,10 @@
         <v>12</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -955,16 +955,16 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
         <v>2.63</v>
@@ -976,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -997,10 +997,10 @@
         <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG3" t="n">
         <v>351</v>
@@ -1021,7 +1021,7 @@
         <v>126</v>
       </c>
       <c r="AM3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN3" t="n">
         <v>3</v>
@@ -1042,13 +1042,13 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
         <v>12</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW3" t="n">
         <v>12</v>
@@ -1127,16 +1127,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1281,16 +1281,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
@@ -1305,10 +1305,10 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
         <v>2.5</v>
@@ -1338,10 +1338,10 @@
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1359,10 +1359,10 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1493,10 +1493,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1505,13 +1505,13 @@
         <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1520,7 +1520,7 @@
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
         <v>19</v>
@@ -1550,13 +1550,13 @@
         <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
@@ -1592,7 +1592,7 @@
         <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
         <v>23</v>
@@ -1645,22 +1645,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1669,112 +1669,112 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.53</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1792,7 +1792,7 @@
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -1827,91 +1827,91 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
         <v>8</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
       <c r="Z8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA8" t="n">
         <v>17</v>
       </c>
-      <c r="AA8" t="n">
-        <v>19</v>
-      </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
         <v>13</v>
@@ -1929,31 +1929,31 @@
         <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>23</v>
@@ -1965,10 +1965,10 @@
         <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -2033,31 +2033,31 @@
         <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
@@ -2075,25 +2075,25 @@
         <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
         <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
         <v>11</v>
@@ -2126,7 +2126,7 @@
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2147,10 +2147,10 @@
         <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
@@ -928,7 +928,7 @@
         <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I3" t="n">
         <v>15</v>
@@ -1006,7 +1006,7 @@
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
         <v>67</v>
@@ -1021,7 +1021,7 @@
         <v>126</v>
       </c>
       <c r="AM3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN3" t="n">
         <v>3</v>
@@ -1030,7 +1030,7 @@
         <v>5.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>15</v>
@@ -1057,7 +1057,7 @@
         <v>51</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ3" t="n">
         <v>351</v>
@@ -1112,31 +1112,31 @@
         <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1160,13 +1160,13 @@
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
         <v>10</v>
@@ -1187,7 +1187,7 @@
         <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
@@ -1196,7 +1196,7 @@
         <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
@@ -1229,10 +1229,10 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H3" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
         <v>15</v>
@@ -937,7 +937,7 @@
         <v>1.67</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L3" t="n">
         <v>12</v>
@@ -949,22 +949,22 @@
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U3" t="n">
         <v>2.63</v>
@@ -973,10 +973,10 @@
         <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -991,34 +991,34 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AM3" t="n">
         <v>101</v>
@@ -1030,10 +1030,10 @@
         <v>5.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1042,13 +1042,13 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU3" t="n">
         <v>12</v>
       </c>
       <c r="AV3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>12</v>
@@ -1057,7 +1057,7 @@
         <v>51</v>
       </c>
       <c r="AY3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
         <v>351</v>
@@ -1103,46 +1103,46 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
         <v>1.83</v>
@@ -1160,19 +1160,19 @@
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="n">
         <v>13</v>
       </c>
-      <c r="AA4" t="n">
-        <v>15</v>
-      </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1181,13 +1181,13 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
@@ -1202,25 +1202,25 @@
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
@@ -1238,7 +1238,7 @@
         <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-11.xlsx
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -1112,10 +1112,10 @@
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
@@ -1145,13 +1145,13 @@
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
         <v>8</v>
@@ -1166,10 +1166,10 @@
         <v>13</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
         <v>7.5</v>
@@ -1184,13 +1184,13 @@
         <v>251</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
@@ -1214,7 +1214,7 @@
         <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS4" t="n">
         <v>126</v>
@@ -1223,13 +1223,13 @@
         <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
         <v>26</v>
@@ -1244,7 +1244,7 @@
         <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
